--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="suffix_set"/>
+    <sheet name="suffix_set" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>weight</t>
   </si>
@@ -269,19 +269,48 @@
   </si>
   <si>
     <t>িত</t>
+  </si>
+  <si>
+    <t>ের</t>
+  </si>
+  <si>
+    <t>ীয়</t>
+  </si>
+  <si>
+    <t>িয়</t>
+  </si>
+  <si>
+    <t>ীয়ে</t>
+  </si>
+  <si>
+    <t>িয়ে</t>
+  </si>
+  <si>
+    <t>তার</t>
+  </si>
+  <si>
+    <t>েকে</t>
+  </si>
+  <si>
+    <t>িক</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,30 +318,360 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -323,52 +682,326 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -379,10 +1012,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -420,71 +1053,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,7 +1145,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -535,11 +1168,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -548,13 +1181,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -564,7 +1197,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -573,7 +1206,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -582,7 +1215,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -590,10 +1223,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -653,730 +1286,796 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:A96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5740740740741" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row r="5" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+    <row r="6" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    <row r="7" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+    <row r="8" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+    <row r="9" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
+    <row r="10" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+    <row r="11" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+    <row r="12" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
+    <row r="13" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+    <row r="14" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
+    <row r="15" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
+    <row r="16" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3">
+    <row r="17" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3">
+    <row r="18" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3">
+    <row r="19" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="31" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="32" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="34" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="35" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="36" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A36" s="5">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="37" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3">
-        <v>3</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="38" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A38" s="5">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="39" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A39" s="5">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="40" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3">
-        <v>3</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="41" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A41" s="5">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="42" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A42" s="5">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3">
-        <v>3</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="43" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A43" s="5">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3">
-        <v>3</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="44" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A44" s="5">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3">
-        <v>3</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="45" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="46" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A46" s="5">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="47" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A47" s="5">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="48" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A48" s="5">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="49" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="50" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A50" s="5">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="51" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="52" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="53" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="54" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="55" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="56" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="57" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="3">
-        <v>3</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="58" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A58" s="5">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="3">
-        <v>3</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="59" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A59" s="5">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="3">
-        <v>3</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="60" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="3">
-        <v>3</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="61" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A61" s="5">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="3">
-        <v>3</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="62" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="3">
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="63" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="3">
-        <v>3</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="64" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="3">
-        <v>3</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="65" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="66" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="3">
-        <v>3</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="3">
-        <v>3</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="68" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="3">
-        <v>3</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="69" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="3">
-        <v>3</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="3">
-        <v>3</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="71" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="3">
-        <v>3</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="72" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="3">
-        <v>3</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="73" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="3">
-        <v>3</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="3">
-        <v>3</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="75" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="3">
-        <v>3</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="76" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="3">
-        <v>3</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A77" s="5">
+        <v>3</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="3">
-        <v>3</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="78" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A78" s="5">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="3">
-        <v>3</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="79" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A79" s="5">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="3">
-        <v>3</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A80" s="5">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="3">
-        <v>3</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="81" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A81" s="5">
+        <v>3</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="3">
-        <v>3</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="82" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A82" s="5">
+        <v>3</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3">
-        <v>3</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="83" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A83" s="5">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3">
-        <v>3</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="84" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A84" s="5">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3">
-        <v>3</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="85" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A85" s="5">
+        <v>3</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="86" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A86" s="5">
+        <v>3</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="3">
+    <row r="87" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A87" s="5">
         <v>3</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="3">
-        <v>3</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="88" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A88" s="5">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="10920" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="suffix_set" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>weight</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>িক</t>
+  </si>
+  <si>
+    <t>নীয়</t>
   </si>
 </sst>
 </file>
@@ -302,8 +305,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -334,9 +337,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,58 +472,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -407,75 +479,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -486,37 +489,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,145 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,20 +685,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +702,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -748,180 +764,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,10 +1297,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A96"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2074,6 +2077,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10920" windowHeight="9072"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="suffix_set" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>weight</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>নীয়</t>
+  </si>
+  <si>
+    <t>তায়</t>
+  </si>
+  <si>
+    <t>ীয়তার</t>
   </si>
 </sst>
 </file>
@@ -304,9 +310,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -345,6 +351,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +402,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -375,110 +480,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -489,13 +495,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,169 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +686,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,15 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -727,6 +739,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,21 +769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -772,159 +780,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,10 +1303,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2085,6 +2091,22 @@
         <v>93</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="suffix_set"/>
+    <sheet name="suffix_set" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>weight</t>
   </si>
@@ -302,19 +302,33 @@
   </si>
   <si>
     <t>ীয়তার</t>
+  </si>
+  <si>
+    <t>না</t>
+  </si>
+  <si>
+    <t>তম</t>
+  </si>
+  <si>
+    <t>তাকে</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,36 +336,373 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -363,51 +714,328 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,10 +1046,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -459,71 +1087,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,7 +1179,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -574,11 +1202,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -587,13 +1215,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -603,7 +1231,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -612,7 +1240,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -621,7 +1249,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -629,10 +1257,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -692,818 +1320,844 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5740740740741" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="3">
+    <row r="2" ht="21" customHeight="1" spans="1:2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="3">
+    <row r="3" ht="21" customHeight="1" spans="1:2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="3">
+    <row r="5" ht="21" customHeight="1" spans="1:2">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="3">
+    <row r="6" ht="21" customHeight="1" spans="1:2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="3">
+    <row r="7" ht="21" customHeight="1" spans="1:2">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="3">
+    <row r="8" ht="21" customHeight="1" spans="1:2">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="3">
+    <row r="9" ht="21" customHeight="1" spans="1:2">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5">
+    <row r="10" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="3">
+    <row r="11" ht="21" customHeight="1" spans="1:2">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="3">
+    <row r="12" ht="21" customHeight="1" spans="1:2">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="3">
+    <row r="13" ht="21" customHeight="1" spans="1:2">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="3">
+    <row r="14" ht="21" customHeight="1" spans="1:2">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="3">
+    <row r="15" ht="21" customHeight="1" spans="1:2">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
-      <c r="A16" s="3">
+    <row r="16" ht="21" customHeight="1" spans="1:2">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
-      <c r="A17" s="3">
+    <row r="17" ht="21" customHeight="1" spans="1:2">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
-      <c r="A18" s="3">
+    <row r="18" ht="21" customHeight="1" spans="1:2">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
-      <c r="A19" s="3">
+    <row r="19" ht="21" customHeight="1" spans="1:2">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" ht="21" customHeight="1" spans="1:2">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" ht="21" customHeight="1" spans="1:2">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="31" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="32" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="34" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="35" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="36" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A36" s="5">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="37" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3">
-        <v>3</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="38" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A38" s="5">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="39" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A39" s="5">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="40" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3">
-        <v>3</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="41" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A41" s="5">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="42" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A42" s="5">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3">
-        <v>3</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="43" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A43" s="5">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3">
-        <v>3</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="44" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A44" s="5">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3">
-        <v>3</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="45" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="46" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A46" s="5">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="47" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A47" s="5">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="48" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A48" s="5">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="49" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A49" s="5">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="50" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A50" s="5">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="51" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="52" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="53" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="54" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="55" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="56" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="57" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="3">
-        <v>3</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="58" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A58" s="5">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="3">
-        <v>3</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="59" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A59" s="5">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="3">
-        <v>3</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="60" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="3">
-        <v>3</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="61" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A61" s="5">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="3">
-        <v>3</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="62" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="3">
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="63" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="3">
-        <v>3</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="64" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="3">
-        <v>3</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="65" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="66" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="3">
-        <v>3</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="3">
-        <v>3</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="68" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="3">
-        <v>3</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="69" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="3">
-        <v>3</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="3">
-        <v>3</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="71" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="3">
-        <v>3</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="72" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="3">
-        <v>3</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="73" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="3">
-        <v>3</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="3">
-        <v>3</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="75" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="3">
-        <v>3</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="76" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="3">
-        <v>3</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A77" s="5">
+        <v>3</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="3">
-        <v>3</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="78" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A78" s="5">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="3">
-        <v>3</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="79" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A79" s="5">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="3">
-        <v>3</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A80" s="5">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="3">
-        <v>3</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="81" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A81" s="5">
+        <v>3</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="3">
-        <v>3</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="82" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A82" s="5">
+        <v>3</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3">
-        <v>3</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="83" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A83" s="5">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3">
-        <v>3</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="84" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A84" s="5">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3">
-        <v>3</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="85" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A85" s="5">
+        <v>3</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="86" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A86" s="5">
+        <v>3</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="3">
-        <v>3</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    <row r="87" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="3">
-        <v>3</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="88" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A88" s="5">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
-      <c r="A89" s="5">
-        <v>3</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    <row r="89" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A89" s="7">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
-      <c r="A90" s="5">
-        <v>3</v>
-      </c>
-      <c r="B90" s="6" t="s">
+    <row r="90" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A90" s="7">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="5">
-        <v>3</v>
-      </c>
-      <c r="B91" s="6" t="s">
+    <row r="91" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A91" s="7">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="5">
-        <v>3</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="92" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A92" s="7">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="5">
-        <v>3</v>
-      </c>
-      <c r="B93" s="6" t="s">
+    <row r="93" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A93" s="7">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
-      <c r="A94" s="5">
-        <v>3</v>
-      </c>
-      <c r="B94" s="6" t="s">
+    <row r="94" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A94" s="7">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
-      <c r="A95" s="5">
-        <v>3</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A95" s="7">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
-      <c r="A96" s="5">
-        <v>3</v>
-      </c>
-      <c r="B96" s="6" t="s">
+    <row r="96" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A96" s="7">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
-      <c r="A97" s="5">
-        <v>3</v>
-      </c>
-      <c r="B97" s="6" t="s">
+    <row r="97" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A97" s="7">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
-      <c r="A98" s="5">
-        <v>3</v>
-      </c>
-      <c r="B98" s="6" t="s">
+    <row r="98" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A98" s="7">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="5">
-        <v>3</v>
-      </c>
-      <c r="B99" s="6" t="s">
+    <row r="99" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A99" s="7">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>weight</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>তাকে</t>
+  </si>
+  <si>
+    <t>গুলি</t>
   </si>
 </sst>
 </file>
@@ -318,12 +321,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +361,42 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -373,7 +405,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,40 +443,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,6 +475,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,74 +503,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -517,19 +513,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,163 +603,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,65 +704,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -794,6 +731,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -808,151 +769,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,10 +1324,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2156,6 +2152,14 @@
         <v>98</v>
       </c>
     </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="11520" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="suffix_set" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>weight</t>
   </si>
@@ -314,6 +314,21 @@
   </si>
   <si>
     <t>গুলি</t>
+  </si>
+  <si>
+    <t>টারই</t>
+  </si>
+  <si>
+    <t>টুকু</t>
+  </si>
+  <si>
+    <t>েছিলেন</t>
+  </si>
+  <si>
+    <t>েক</t>
+  </si>
+  <si>
+    <t>েই</t>
   </si>
 </sst>
 </file>
@@ -321,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -368,6 +383,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -376,36 +427,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,9 +459,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,9 +484,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,58 +498,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -513,6 +528,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,6 +564,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -537,25 +606,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,133 +678,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,30 +719,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -756,25 +747,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,151 +786,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,10 +1339,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="A105" sqref="A105:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2160,6 +2175,46 @@
         <v>99</v>
       </c>
     </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/suffix_set.xlsx
+++ b/suffix_set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>weight</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>েই</t>
+  </si>
+  <si>
+    <t>রাই</t>
   </si>
 </sst>
 </file>
@@ -336,10 +339,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -373,6 +376,50 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -383,8 +430,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,44 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -451,16 +477,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,50 +515,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -528,13 +531,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,19 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,145 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,6 +722,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -742,47 +784,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,157 +814,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,10 +1342,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:A108"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2215,6 +2218,14 @@
         <v>104</v>
       </c>
     </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
